--- a/MyProject/Luban/Config/Datas/PlayerInfo.xlsx
+++ b/MyProject/Luban/Config/Datas/PlayerInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\MyProject\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104B95EE-07E6-4A0C-9814-7BB79C6B5832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C84CA04-99BA-46F7-940C-040728D1BFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="28740" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>##</t>
   </si>
@@ -202,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>廷巴克图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色代号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Timbuktu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Alias</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,6 +271,22 @@
   </si>
   <si>
     <t>103|104|105|106|107|108|109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Irene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,18 +613,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.34765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,28 +680,28 @@
         <v>42</v>
       </c>
       <c r="S1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="T1" t="s">
         <v>21</v>
       </c>
       <c r="U1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="V1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
-        <v>52</v>
-      </c>
       <c r="X1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Y1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -770,7 +778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -826,28 +834,28 @@
         <v>44</v>
       </c>
       <c r="S3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T3" t="s">
         <v>24</v>
       </c>
       <c r="U3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" t="s">
         <v>51</v>
       </c>
-      <c r="W3" t="s">
-        <v>53</v>
-      </c>
       <c r="X3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B4">
         <v>10001</v>
       </c>
@@ -894,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R4" t="s">
         <v>43</v>
@@ -906,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V4">
         <v>3</v>
@@ -915,18 +923,18 @@
         <v>3</v>
       </c>
       <c r="X4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B5">
         <v>10002</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -968,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -980,12 +988,80 @@
         <v>1</v>
       </c>
       <c r="U5" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="V5">
         <v>3</v>
       </c>
       <c r="W5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="B6">
+        <v>10003</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>33</v>
+      </c>
+      <c r="J6">
+        <v>25</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0.1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
+        <v>66</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
         <v>4</v>
       </c>
     </row>
